--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaphan.YIZHISEC\Desktop\jiekou-python3\test_case_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1434C-FB22-49BE-B72D-71F66DC14236}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>用例ID</t>
   </si>
@@ -24,9 +30,6 @@
     <t>用例名</t>
   </si>
   <si>
-    <t>key(需要key可以在这里增加key)</t>
-  </si>
-  <si>
     <t>参数</t>
   </si>
   <si>
@@ -39,40 +42,93 @@
     <t>期望</t>
   </si>
   <si>
-    <t>图灵api接口</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>{'password':'1222'}</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
-  </si>
-  <si>
-    <t>code=40002</t>
-  </si>
-  <si>
-    <t>/openapi/api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/openapi/api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>/lohsvc/user/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"dsadmin","password":"123456"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的用户名和密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lohsvc/agent/query-action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询处置md5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":1,"pageCount":100,"type":1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1&amp;msg=success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加处置MD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lohsvc/agent/add-bad-md5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"md5":"ea8b07f3f63dc97312e483394da5ad1c"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1&amp;msg=success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5:ea8b07f3f63dc97312e483394da5ad1c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5:ea8b07f3f63dc97312e483394da5ad1c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除MD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lohsvc/agent/delete-action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"action":[136]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5:ea8b07f3f63dc97312e483394da5ad2c</t>
+  </si>
+  <si>
+    <t>登入接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,16 +145,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,11 +197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -148,6 +213,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -196,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +297,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +349,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,19 +541,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="44.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,81 +565,126 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E3" r:id="rId2" tooltip="http://www.tuling123.com/openapi/api_x000a_" display="http://www.tuling123.com/openapi/api_x000a_"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.tuling123.com/openapi/api" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -545,21 +693,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
